--- a/Bill of Materials/BOM_Sam.xlsx
+++ b/Bill of Materials/BOM_Sam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Documents\GitHub\METR4810\CostCalculation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Documents\GitHub\METR4810\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>PCB</t>
   </si>
@@ -33,18 +33,12 @@
     <t>(PCB Way)</t>
   </si>
   <si>
-    <t>Atmega32m1</t>
-  </si>
-  <si>
     <t>RS</t>
   </si>
   <si>
     <t>Foam Tiles</t>
   </si>
   <si>
-    <t>(Only using half $12 originally)</t>
-  </si>
-  <si>
     <t>Stepper</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>6 Pin Sockets</t>
   </si>
   <si>
-    <t>8 Pin Sockets</t>
-  </si>
-  <si>
     <t>2 Pin Sockets</t>
   </si>
   <si>
@@ -84,24 +75,29 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Preowned ($9.47) https://changzhou.1688.com/offer/526159553478.html</t>
-  </si>
-  <si>
     <t>Controller Housing</t>
   </si>
   <si>
     <t>Might get away with at $3 one, unless we want to start looking for budget options</t>
+  </si>
+  <si>
+    <t>Atmega324</t>
+  </si>
+  <si>
+    <t>http://nxtmarket.info/item/536308083756</t>
+  </si>
+  <si>
+    <t>(Only using a third $12 originally)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +109,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,17 +139,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,31 +513,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.53515625" customWidth="1"/>
-    <col min="2" max="2" width="9.69140625" customWidth="1"/>
+    <col min="2" max="2" width="13.84375" customWidth="1"/>
     <col min="3" max="3" width="12.3046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -546,102 +552,118 @@
       </c>
       <c r="D2" s="4">
         <f>SUM(B2:B17)</f>
-        <v>30.270000000000003</v>
+        <v>32.24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4.75</v>
-      </c>
-      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>0.87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
         <v>5.4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
         <v>6.25</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
